--- a/template2.xlsx
+++ b/template2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyvin\OneDrive\Documents\GitHub\pyarchive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BFA43E-D80A-46E6-AF54-E1E5C313DC0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87CAAAE-C84A-4C67-84D1-F290C9FE5C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4155" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{8B8558C1-101D-4A9F-840D-31D3CDBD0170}"/>
   </bookViews>
@@ -35,12 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
-    <t>{{begin}}</t>
-  </si>
-  <si>
-    <t>{{end}}</t>
-  </si>
-  <si>
     <t>last_name</t>
   </si>
   <si>
@@ -60,6 +54,12 @@
   </si>
   <si>
     <t>{{occupation}}</t>
+  </si>
+  <si>
+    <t>[[begin]]</t>
+  </si>
+  <si>
+    <t>[[end]]</t>
   </si>
 </sst>
 </file>
@@ -444,7 +444,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,29 +457,29 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>A3&amp;","&amp;B3</f>
@@ -492,12 +492,12 @@
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -505,7 +505,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
